--- a/作業予定(仮).xlsx
+++ b/作業予定(仮).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2210077\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2210077\Documents\GitHub\TeamSeisaku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F1ADCB-C8A0-4370-A8C2-DA00967AD1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC6E594-CB70-41CF-8725-1A4792741E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11448" yWindow="2376" windowWidth="15912" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -398,10 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1パターン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -417,14 +413,6 @@
     <rPh sb="0" eb="2">
       <t>ツウジョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4パターン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>８パターン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -442,10 +430,6 @@
   </si>
   <si>
     <t>カウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5パターン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -531,14 +515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1パターン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>４パターン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>浮いてる床</t>
     <rPh sb="0" eb="1">
       <t>ウ</t>
@@ -566,6 +542,41 @@
     <rPh sb="9" eb="11">
       <t>ヨウイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1280*720</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1パターン 150*150</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4パターン 150*150</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４パターン 150*150</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８パターン 284*200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5パターン 100*100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4パターン 100*100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1313,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
@@ -1346,7 +1357,7 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1355,13 +1366,13 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
@@ -1370,7 +1381,7 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="12"/>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1399,7 +1410,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -1408,10 +1419,10 @@
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
@@ -1420,7 +1431,7 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1433,7 +1444,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
@@ -1465,7 +1476,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>7</v>
@@ -1514,7 +1525,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1594,7 +1605,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
@@ -1603,10 +1614,10 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
@@ -1615,10 +1626,10 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
@@ -1627,10 +1638,10 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
@@ -1641,10 +1652,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
@@ -1655,10 +1666,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
@@ -1667,10 +1678,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
@@ -1678,11 +1689,11 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
@@ -1690,20 +1701,24 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>

--- a/作業予定(仮).xlsx
+++ b/作業予定(仮).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2210077\Documents\GitHub\TeamSeisaku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2210077\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC6E594-CB70-41CF-8725-1A4792741E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29CC866-F373-4CFE-A58E-3E31C10D756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11448" yWindow="2376" windowWidth="15912" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -577,6 +577,22 @@
   </si>
   <si>
     <t>4パターン 100*100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1280*720</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1525,7 +1541,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1724,25 +1740,37 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
